--- a/Assets/Projektplan .xlsx
+++ b/Assets/Projektplan .xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MajkenPlugge/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MajkenPlugge/git/4Gewinnt/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="13860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitachse" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,20 @@
     <sheet name="2. Beta-Version" sheetId="2" r:id="rId3"/>
     <sheet name="3. Endtunier" sheetId="12" r:id="rId4"/>
     <sheet name="Arbeitspakte" sheetId="13" r:id="rId5"/>
-    <sheet name="GANT" sheetId="14" r:id="rId6"/>
+    <sheet name="Gantt" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Ausgewählter_Zeitraum">Gantt!$Q$3</definedName>
+    <definedName name="Ist">(ZeitraumInIst*(Gantt!$E1&gt;0))*ZeitraumInPlanenung</definedName>
+    <definedName name="IstUnter">ZeitraumInIst*(Gantt!$E1&gt;0)</definedName>
+    <definedName name="Planen">ZeitraumInPlanenung*(Gantt!$C1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitachse!$A$1:$N$17</definedName>
     <definedName name="Projektende">Zeitachse!$L$21</definedName>
     <definedName name="Projektstart">Zeitachse!$L$19</definedName>
+    <definedName name="ProzentAbgeschlossen">ProzentAbgeschlossenUnter*ZeitraumInPlanenung</definedName>
+    <definedName name="ProzentAbgeschlossenUnter">(Gantt!A$8=MEDIAN(Gantt!A$8,Gantt!$E1,Gantt!$E1+Gantt!$F1)*(Gantt!$E1&gt;0))*((Gantt!A$8&lt;(INT(Gantt!$E1+Gantt!$F1*Gantt!$G1)))+(Gantt!A$8=Gantt!$E1))*(Gantt!$G1&gt;0)</definedName>
+    <definedName name="ZeitraumInIst">Gantt!A$8=MEDIAN(Gantt!A$8,Gantt!$E1,Gantt!$E1+Gantt!$F1-1)</definedName>
+    <definedName name="ZeitraumInPlanenung">Gantt!A$8=MEDIAN(Gantt!A$8,Gantt!$C1,Gantt!$C1+Gantt!$D1-1)</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
   <si>
     <t>Projektende</t>
   </si>
@@ -310,13 +318,196 @@
   </si>
   <si>
     <t xml:space="preserve">GIT Repository </t>
+  </si>
+  <si>
+    <t>Projektplanung</t>
+  </si>
+  <si>
+    <t>Hervorgehobener Zeitraum:</t>
+  </si>
+  <si>
+    <t>Geplant</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>erledigt</t>
+    </r>
+  </si>
+  <si>
+    <t>Ist (über Planenung hinaus)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>erledigt (über Planenung hinaus)</t>
+    </r>
+  </si>
+  <si>
+    <t>GEPLANTE(R)</t>
+  </si>
+  <si>
+    <t>IST-</t>
+  </si>
+  <si>
+    <t>PROZENT</t>
+  </si>
+  <si>
+    <t>AKTIVITÄT</t>
+  </si>
+  <si>
+    <t>BEGINN</t>
+  </si>
+  <si>
+    <t>DAUER</t>
+  </si>
+  <si>
+    <t>ERLEDIGT</t>
+  </si>
+  <si>
+    <t>ZEITRÄUME</t>
+  </si>
+  <si>
+    <t>Aktivität 01</t>
+  </si>
+  <si>
+    <t>Aktivität 02</t>
+  </si>
+  <si>
+    <t>Aktivität 03</t>
+  </si>
+  <si>
+    <t>Aktivität 04</t>
+  </si>
+  <si>
+    <t>Aktivität 05</t>
+  </si>
+  <si>
+    <t>Aktivität 06</t>
+  </si>
+  <si>
+    <t>Aktivität 07</t>
+  </si>
+  <si>
+    <t>Aktivität 08</t>
+  </si>
+  <si>
+    <t>Aktivität 09</t>
+  </si>
+  <si>
+    <t>Aktivität 10</t>
+  </si>
+  <si>
+    <t>Aktivität 11</t>
+  </si>
+  <si>
+    <t>Aktivität 12</t>
+  </si>
+  <si>
+    <t>Aktivität 13</t>
+  </si>
+  <si>
+    <t>Aktivität 14</t>
+  </si>
+  <si>
+    <t>Aktivität 15</t>
+  </si>
+  <si>
+    <t>Aktivität 16</t>
+  </si>
+  <si>
+    <t>Aktivität 17</t>
+  </si>
+  <si>
+    <t>Aktivität 18</t>
+  </si>
+  <si>
+    <t>Aktivität 19</t>
+  </si>
+  <si>
+    <t>Aktivität 20</t>
+  </si>
+  <si>
+    <t>Aktivität 21</t>
+  </si>
+  <si>
+    <t>Aktivität 22</t>
+  </si>
+  <si>
+    <t>Aktivität 23</t>
+  </si>
+  <si>
+    <t>Aktivität 24</t>
+  </si>
+  <si>
+    <t>Aktivität 25</t>
+  </si>
+  <si>
+    <t>Aktivität 26</t>
+  </si>
+  <si>
+    <t>06.11.15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -400,8 +591,87 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="42"/>
+      <color theme="7"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +708,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+        <bgColor theme="7" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+        <bgColor theme="9" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -478,8 +783,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,8 +827,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,15 +960,397 @@
     <xf numFmtId="10" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="9">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="6" xfId="12">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="12" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="6" xfId="12" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
+    <cellStyle name="Activity" xfId="9"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1 2" xfId="5"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Label" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Percent Complete" xfId="10"/>
+    <cellStyle name="Period Headers" xfId="12"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Project Headers" xfId="11"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -660,8 +1404,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project Timeline" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -968,8 +1712,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2057559488"/>
-        <c:axId val="-2057532512"/>
+        <c:axId val="-2035737568"/>
+        <c:axId val="-2035566064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1074,11 +1818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103292752"/>
-        <c:axId val="-2103266976"/>
+        <c:axId val="-2035448288"/>
+        <c:axId val="-2035561920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2103292752"/>
+        <c:axId val="-2035448288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103266976"/>
+        <c:crossAx val="-2035561920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1129,7 +1873,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2103266976"/>
+        <c:axId val="-2035561920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,12 +1883,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103292752"/>
+        <c:crossAx val="-2035448288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2057532512"/>
+        <c:axId val="-2035566064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,12 +1898,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057559488"/>
+        <c:crossAx val="-2035737568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2057559488"/>
+        <c:axId val="-2035737568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057532512"/>
+        <c:crossAx val="-2035566064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,6 +1942,10 @@
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="0" inc="0" max="0" page="0" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,13 +1983,65 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>203200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>254000</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Drehfeld 5" descr="Period Highlight Spin Control" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B19:E24" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="DATUM" dataDxfId="3"/>
-    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="2"/>
-    <tableColumn id="4" name="POSITION" dataDxfId="1"/>
-    <tableColumn id="5" name="BASISLINIE" dataDxfId="0">
+    <tableColumn id="1" name="DATUM" dataDxfId="21"/>
+    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="20"/>
+    <tableColumn id="4" name="POSITION" dataDxfId="19"/>
+    <tableColumn id="5" name="BASISLINIE" dataDxfId="18">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1749,13 +2549,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="16"/>
+    <col min="1" max="1" width="10.83203125" style="16"/>
     <col min="2" max="2" width="16.6640625" style="16" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="16" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="16" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="16"/>
+    <col min="7" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -1848,12 +2648,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="16"/>
+    <col min="1" max="2" width="10.83203125" style="16"/>
     <col min="3" max="3" width="14.83203125" style="16" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="16" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="16"/>
+    <col min="7" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -1902,18 +2702,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="16"/>
+    <col min="1" max="2" width="10.83203125" style="16"/>
     <col min="3" max="3" width="14.83203125" style="16" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="16" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="16"/>
+    <col min="7" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -1942,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1955,7 +2755,7 @@
     <col min="5" max="5" width="12.5" style="17" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="18"/>
     <col min="7" max="7" width="24" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="17"/>
+    <col min="8" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -2882,14 +3682,957 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:BV34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="38" customWidth="1"/>
+    <col min="9" max="28" width="7.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="29" max="67" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7" style="39" customWidth="1"/>
+    <col min="70" max="72" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="2.6640625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:74" ht="17" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="2:74" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41">
+        <v>1</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+    </row>
+    <row r="5" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+    </row>
+    <row r="6" spans="2:74" ht="17" x14ac:dyDescent="0.25">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+    </row>
+    <row r="7" spans="2:74" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="58">
+        <v>42254</v>
+      </c>
+      <c r="J8" s="58">
+        <v>42255</v>
+      </c>
+      <c r="K8" s="58">
+        <v>42256</v>
+      </c>
+      <c r="L8" s="58">
+        <v>42257</v>
+      </c>
+      <c r="M8" s="58">
+        <v>42258</v>
+      </c>
+      <c r="N8" s="58">
+        <v>42259</v>
+      </c>
+      <c r="O8" s="58">
+        <v>42260</v>
+      </c>
+      <c r="P8" s="58">
+        <v>42261</v>
+      </c>
+      <c r="Q8" s="58">
+        <v>42262</v>
+      </c>
+      <c r="R8" s="58">
+        <v>42263</v>
+      </c>
+      <c r="S8" s="58">
+        <v>42264</v>
+      </c>
+      <c r="T8" s="58">
+        <v>42265</v>
+      </c>
+      <c r="U8" s="58">
+        <v>42266</v>
+      </c>
+      <c r="V8" s="58">
+        <v>42267</v>
+      </c>
+      <c r="W8" s="58">
+        <v>42268</v>
+      </c>
+      <c r="X8" s="58">
+        <v>42269</v>
+      </c>
+      <c r="Y8" s="58">
+        <v>42270</v>
+      </c>
+      <c r="Z8" s="58">
+        <v>42271</v>
+      </c>
+      <c r="AA8" s="58">
+        <v>42272</v>
+      </c>
+      <c r="AB8" s="58">
+        <v>42273</v>
+      </c>
+      <c r="AC8" s="58">
+        <v>42274</v>
+      </c>
+      <c r="AD8" s="58">
+        <v>42275</v>
+      </c>
+      <c r="AE8" s="58">
+        <v>42276</v>
+      </c>
+      <c r="AF8" s="58">
+        <v>42277</v>
+      </c>
+      <c r="AG8" s="58">
+        <v>42278</v>
+      </c>
+      <c r="AH8" s="58">
+        <v>42279</v>
+      </c>
+      <c r="AI8" s="58">
+        <v>42280</v>
+      </c>
+      <c r="AJ8" s="58">
+        <v>42281</v>
+      </c>
+      <c r="AK8" s="58">
+        <v>42282</v>
+      </c>
+      <c r="AL8" s="58">
+        <v>42283</v>
+      </c>
+      <c r="AM8" s="58">
+        <v>42284</v>
+      </c>
+      <c r="AN8" s="58">
+        <v>42285</v>
+      </c>
+      <c r="AO8" s="58">
+        <v>42286</v>
+      </c>
+      <c r="AP8" s="58">
+        <v>42287</v>
+      </c>
+      <c r="AQ8" s="58">
+        <v>42288</v>
+      </c>
+      <c r="AR8" s="58">
+        <v>42289</v>
+      </c>
+      <c r="AS8" s="58">
+        <v>42290</v>
+      </c>
+      <c r="AT8" s="58">
+        <v>42291</v>
+      </c>
+      <c r="AU8" s="58">
+        <v>42292</v>
+      </c>
+      <c r="AV8" s="58">
+        <v>42293</v>
+      </c>
+      <c r="AW8" s="58">
+        <v>42294</v>
+      </c>
+      <c r="AX8" s="58">
+        <v>42295</v>
+      </c>
+      <c r="AY8" s="58">
+        <v>42296</v>
+      </c>
+      <c r="AZ8" s="58">
+        <v>42297</v>
+      </c>
+      <c r="BA8" s="58">
+        <v>42298</v>
+      </c>
+      <c r="BB8" s="58">
+        <v>42299</v>
+      </c>
+      <c r="BC8" s="58">
+        <v>42300</v>
+      </c>
+      <c r="BD8" s="58">
+        <v>42301</v>
+      </c>
+      <c r="BE8" s="58">
+        <v>42302</v>
+      </c>
+      <c r="BF8" s="58">
+        <v>42303</v>
+      </c>
+      <c r="BG8" s="58">
+        <v>42304</v>
+      </c>
+      <c r="BH8" s="58">
+        <v>42305</v>
+      </c>
+      <c r="BI8" s="58">
+        <v>42306</v>
+      </c>
+      <c r="BJ8" s="58">
+        <v>42307</v>
+      </c>
+      <c r="BK8" s="58">
+        <v>42308</v>
+      </c>
+      <c r="BL8" s="58">
+        <v>42309</v>
+      </c>
+      <c r="BM8" s="58">
+        <v>42310</v>
+      </c>
+      <c r="BN8" s="58">
+        <v>42311</v>
+      </c>
+      <c r="BO8" s="58">
+        <v>42312</v>
+      </c>
+      <c r="BP8" s="58">
+        <v>42313</v>
+      </c>
+      <c r="BQ8" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR8" s="58">
+        <v>42315</v>
+      </c>
+      <c r="BS8" s="58">
+        <v>42316</v>
+      </c>
+      <c r="BT8" s="58">
+        <v>42317</v>
+      </c>
+      <c r="BU8" s="60"/>
+      <c r="BV8" s="60"/>
+    </row>
+    <row r="9" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1</v>
+      </c>
+      <c r="D9" s="55">
+        <v>5</v>
+      </c>
+      <c r="E9" s="55">
+        <v>1</v>
+      </c>
+      <c r="F9" s="55">
+        <v>4</v>
+      </c>
+      <c r="G9" s="56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="55">
+        <v>1</v>
+      </c>
+      <c r="D10" s="55">
+        <v>6</v>
+      </c>
+      <c r="E10" s="55">
+        <v>1</v>
+      </c>
+      <c r="F10" s="55">
+        <v>6</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="55">
+        <v>2</v>
+      </c>
+      <c r="D11" s="55">
+        <v>4</v>
+      </c>
+      <c r="E11" s="55">
+        <v>2</v>
+      </c>
+      <c r="F11" s="55">
+        <v>5</v>
+      </c>
+      <c r="G11" s="56">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="55">
+        <v>4</v>
+      </c>
+      <c r="D12" s="55">
+        <v>8</v>
+      </c>
+      <c r="E12" s="55">
+        <v>4</v>
+      </c>
+      <c r="F12" s="55">
+        <v>6</v>
+      </c>
+      <c r="G12" s="56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="55">
+        <v>4</v>
+      </c>
+      <c r="D13" s="55">
+        <v>2</v>
+      </c>
+      <c r="E13" s="55">
+        <v>4</v>
+      </c>
+      <c r="F13" s="55">
+        <v>8</v>
+      </c>
+      <c r="G13" s="56">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="55">
+        <v>4</v>
+      </c>
+      <c r="D14" s="55">
+        <v>3</v>
+      </c>
+      <c r="E14" s="55">
+        <v>4</v>
+      </c>
+      <c r="F14" s="55">
+        <v>6</v>
+      </c>
+      <c r="G14" s="56">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="55">
+        <v>5</v>
+      </c>
+      <c r="D15" s="55">
+        <v>4</v>
+      </c>
+      <c r="E15" s="55">
+        <v>5</v>
+      </c>
+      <c r="F15" s="55">
+        <v>3</v>
+      </c>
+      <c r="G15" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="55">
+        <v>5</v>
+      </c>
+      <c r="D16" s="55">
+        <v>2</v>
+      </c>
+      <c r="E16" s="55">
+        <v>5</v>
+      </c>
+      <c r="F16" s="55">
+        <v>5</v>
+      </c>
+      <c r="G16" s="56">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="55">
+        <v>5</v>
+      </c>
+      <c r="D17" s="55">
+        <v>2</v>
+      </c>
+      <c r="E17" s="55">
+        <v>5</v>
+      </c>
+      <c r="F17" s="55">
+        <v>6</v>
+      </c>
+      <c r="G17" s="56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="55">
+        <v>6</v>
+      </c>
+      <c r="D18" s="55">
+        <v>5</v>
+      </c>
+      <c r="E18" s="55">
+        <v>6</v>
+      </c>
+      <c r="F18" s="55">
+        <v>7</v>
+      </c>
+      <c r="G18" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="57">
+        <v>6</v>
+      </c>
+      <c r="D19" s="55">
+        <v>1</v>
+      </c>
+      <c r="E19" s="55">
+        <v>5</v>
+      </c>
+      <c r="F19" s="55">
+        <v>8</v>
+      </c>
+      <c r="G19" s="56">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="55">
+        <v>9</v>
+      </c>
+      <c r="D20" s="55">
+        <v>3</v>
+      </c>
+      <c r="E20" s="55">
+        <v>9</v>
+      </c>
+      <c r="F20" s="55">
+        <v>3</v>
+      </c>
+      <c r="G20" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="55">
+        <v>9</v>
+      </c>
+      <c r="D21" s="55">
+        <v>6</v>
+      </c>
+      <c r="E21" s="55">
+        <v>9</v>
+      </c>
+      <c r="F21" s="55">
+        <v>7</v>
+      </c>
+      <c r="G21" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="55">
+        <v>9</v>
+      </c>
+      <c r="D22" s="55">
+        <v>3</v>
+      </c>
+      <c r="E22" s="55">
+        <v>9</v>
+      </c>
+      <c r="F22" s="55">
+        <v>1</v>
+      </c>
+      <c r="G22" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="55">
+        <v>9</v>
+      </c>
+      <c r="D23" s="55">
+        <v>4</v>
+      </c>
+      <c r="E23" s="55">
+        <v>8</v>
+      </c>
+      <c r="F23" s="55">
+        <v>5</v>
+      </c>
+      <c r="G23" s="56">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="55">
+        <v>10</v>
+      </c>
+      <c r="D24" s="55">
+        <v>5</v>
+      </c>
+      <c r="E24" s="55">
+        <v>10</v>
+      </c>
+      <c r="F24" s="55">
+        <v>3</v>
+      </c>
+      <c r="G24" s="56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="55">
+        <v>11</v>
+      </c>
+      <c r="D25" s="55">
+        <v>2</v>
+      </c>
+      <c r="E25" s="55">
+        <v>11</v>
+      </c>
+      <c r="F25" s="55">
+        <v>5</v>
+      </c>
+      <c r="G25" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="55">
+        <v>12</v>
+      </c>
+      <c r="D26" s="55">
+        <v>6</v>
+      </c>
+      <c r="E26" s="55">
+        <v>12</v>
+      </c>
+      <c r="F26" s="55">
+        <v>7</v>
+      </c>
+      <c r="G26" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="55">
+        <v>12</v>
+      </c>
+      <c r="D27" s="55">
+        <v>1</v>
+      </c>
+      <c r="E27" s="55">
+        <v>12</v>
+      </c>
+      <c r="F27" s="55">
+        <v>5</v>
+      </c>
+      <c r="G27" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="55">
+        <v>14</v>
+      </c>
+      <c r="D28" s="55">
+        <v>5</v>
+      </c>
+      <c r="E28" s="55">
+        <v>14</v>
+      </c>
+      <c r="F28" s="55">
+        <v>6</v>
+      </c>
+      <c r="G28" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="55">
+        <v>14</v>
+      </c>
+      <c r="D29" s="55">
+        <v>8</v>
+      </c>
+      <c r="E29" s="55">
+        <v>14</v>
+      </c>
+      <c r="F29" s="55">
+        <v>2</v>
+      </c>
+      <c r="G29" s="56">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="55">
+        <v>14</v>
+      </c>
+      <c r="D30" s="55">
+        <v>7</v>
+      </c>
+      <c r="E30" s="55">
+        <v>14</v>
+      </c>
+      <c r="F30" s="55">
+        <v>3</v>
+      </c>
+      <c r="G30" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="55">
+        <v>15</v>
+      </c>
+      <c r="D31" s="55">
+        <v>4</v>
+      </c>
+      <c r="E31" s="55">
+        <v>15</v>
+      </c>
+      <c r="F31" s="55">
+        <v>8</v>
+      </c>
+      <c r="G31" s="56">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="55">
+        <v>15</v>
+      </c>
+      <c r="D32" s="55">
+        <v>5</v>
+      </c>
+      <c r="E32" s="55">
+        <v>15</v>
+      </c>
+      <c r="F32" s="55">
+        <v>3</v>
+      </c>
+      <c r="G32" s="56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="55">
+        <v>15</v>
+      </c>
+      <c r="D33" s="55">
+        <v>8</v>
+      </c>
+      <c r="E33" s="55">
+        <v>15</v>
+      </c>
+      <c r="F33" s="55">
+        <v>5</v>
+      </c>
+      <c r="G33" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="55">
+        <v>16</v>
+      </c>
+      <c r="D34" s="55">
+        <v>28</v>
+      </c>
+      <c r="E34" s="55">
+        <v>16</v>
+      </c>
+      <c r="F34" s="55">
+        <v>30</v>
+      </c>
+      <c r="G34" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:BP34">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>ProzentAbgeschlossen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="3">
+      <formula>ProzentAbgeschlossenUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>Ist</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>IstUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>Planen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>I$8=Ausgewählter_Zeitraum</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:BP35">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:BT8">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>I$8=Ausgewählter_Zeitraum</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Drehfeld 5">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>254000</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 

--- a/Assets/Projektplan .xlsx
+++ b/Assets/Projektplan .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitachse" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t>Projektende</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Pakete</t>
   </si>
   <si>
-    <t xml:space="preserve">Künstliche Intellegenz </t>
-  </si>
-  <si>
     <t>Benutzerschnittstelle</t>
   </si>
   <si>
@@ -170,21 +167,12 @@
     <t>Verantwortlicher</t>
   </si>
   <si>
-    <t>Mockups</t>
-  </si>
-  <si>
     <t>Cara</t>
   </si>
   <si>
-    <t>ER-Diagramm</t>
-  </si>
-  <si>
     <t>Felix &amp; Alexander</t>
   </si>
   <si>
-    <t>Vorgang</t>
-  </si>
-  <si>
     <t>Verwaltungstool</t>
   </si>
   <si>
@@ -194,60 +182,21 @@
     <t>Majken</t>
   </si>
   <si>
-    <t>Datei-Schnittstelle</t>
-  </si>
-  <si>
-    <t>Push-Schnittstelle</t>
-  </si>
-  <si>
-    <t>Erstellen der Tabllen</t>
-  </si>
-  <si>
-    <t>Zugriffe auf Tabellen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abstimmung </t>
   </si>
   <si>
     <t xml:space="preserve">UI &amp; KI </t>
   </si>
   <si>
-    <t>Berechnung des Zug</t>
-  </si>
-  <si>
     <t>Björn</t>
   </si>
   <si>
-    <t>Erstellen der Datenbank</t>
-  </si>
-  <si>
-    <t>Verwaltung der Daten</t>
-  </si>
-  <si>
     <t>Triggern von Events</t>
   </si>
   <si>
     <t>Verarbeitung der eingehenden Informationen</t>
   </si>
   <si>
-    <t>Funktionen für Spielablauf</t>
-  </si>
-  <si>
-    <t>grafische Oberfläche</t>
-  </si>
-  <si>
-    <t>Anzeige Satzstatus</t>
-  </si>
-  <si>
-    <t>Anzeige Spielstand</t>
-  </si>
-  <si>
-    <t>Anzeige Spielfeld</t>
-  </si>
-  <si>
-    <t>Anzeige aller Züge des aktuellen Satz</t>
-  </si>
-  <si>
     <t>Einstellen der Credentials</t>
   </si>
   <si>
@@ -266,60 +215,12 @@
     <t>Serverfile</t>
   </si>
   <si>
-    <t>Konfigurieren der benötigten Einstellungen</t>
-  </si>
-  <si>
-    <t>Festlegen des Stazbeginns</t>
-  </si>
-  <si>
-    <t>Spielen des Satzes</t>
-  </si>
-  <si>
-    <t>Festlegen des Satzstarts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehlerbehandlung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feststellen des Satzendes </t>
-  </si>
-  <si>
-    <t>Spezialfall Satzende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Abfragevarianten </t>
-  </si>
-  <si>
     <t xml:space="preserve">Produktdokumentation </t>
   </si>
   <si>
     <t>Felix</t>
   </si>
   <si>
-    <t xml:space="preserve">Entwicklungsdokumentation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benutzungsdokumentation </t>
-  </si>
-  <si>
-    <t>Produktstruktur &amp; Modelle</t>
-  </si>
-  <si>
-    <t>Prozessmodellierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entwurfsentscheidungen </t>
-  </si>
-  <si>
-    <t>Bedienungsanleitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installationsanleitung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIT Repository </t>
-  </si>
-  <si>
     <t>Projektplanung</t>
   </si>
   <si>
@@ -330,6 +231,9 @@
   </si>
   <si>
     <t>Ist</t>
+  </si>
+  <si>
+    <t>Ist (über Planenung hinaus)</t>
   </si>
   <si>
     <r>
@@ -345,40 +249,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>erledigt</t>
-    </r>
-  </si>
-  <si>
-    <t>Ist (über Planenung hinaus)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Arial"/>
+        <rFont val="Tw Cen MT"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,85 +290,148 @@
     <t>ZEITRÄUME</t>
   </si>
   <si>
-    <t>Aktivität 01</t>
-  </si>
-  <si>
-    <t>Aktivität 02</t>
-  </si>
-  <si>
-    <t>Aktivität 03</t>
-  </si>
-  <si>
-    <t>Aktivität 04</t>
-  </si>
-  <si>
-    <t>Aktivität 05</t>
-  </si>
-  <si>
-    <t>Aktivität 06</t>
-  </si>
-  <si>
-    <t>Aktivität 07</t>
-  </si>
-  <si>
-    <t>Aktivität 08</t>
-  </si>
-  <si>
-    <t>Aktivität 09</t>
-  </si>
-  <si>
-    <t>Aktivität 10</t>
-  </si>
-  <si>
-    <t>Aktivität 11</t>
-  </si>
-  <si>
-    <t>Aktivität 12</t>
-  </si>
-  <si>
-    <t>Aktivität 13</t>
-  </si>
-  <si>
-    <t>Aktivität 14</t>
-  </si>
-  <si>
-    <t>Aktivität 15</t>
-  </si>
-  <si>
-    <t>Aktivität 16</t>
-  </si>
-  <si>
-    <t>Aktivität 17</t>
-  </si>
-  <si>
-    <t>Aktivität 18</t>
-  </si>
-  <si>
-    <t>Aktivität 19</t>
-  </si>
-  <si>
-    <t>Aktivität 20</t>
-  </si>
-  <si>
-    <t>Aktivität 21</t>
-  </si>
-  <si>
-    <t>Aktivität 22</t>
-  </si>
-  <si>
-    <t>Aktivität 23</t>
-  </si>
-  <si>
-    <t>Aktivität 24</t>
-  </si>
-  <si>
-    <t>Aktivität 25</t>
-  </si>
-  <si>
-    <t>Aktivität 26</t>
-  </si>
-  <si>
     <t>06.11.15</t>
+  </si>
+  <si>
+    <t>Aufgaben</t>
+  </si>
+  <si>
+    <t>Aktivität</t>
+  </si>
+  <si>
+    <t>Mockups malen</t>
+  </si>
+  <si>
+    <t>Prototyp programmieren</t>
+  </si>
+  <si>
+    <t>UI-Endversion programmieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zug berechen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logisches Spielfeld erstellen </t>
+  </si>
+  <si>
+    <t>Benötigten Einstellungen konfigurieren</t>
+  </si>
+  <si>
+    <t>Satzbeginn festlegen</t>
+  </si>
+  <si>
+    <t>Satz spielen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satzstart festlegen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehler behandeln </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satzende festellen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spezialfall des Satzende behandeln </t>
+  </si>
+  <si>
+    <t>GIT Repository anlegen</t>
+  </si>
+  <si>
+    <t>Datei-Schnittstelle programmieren</t>
+  </si>
+  <si>
+    <t>Push-Schnittstelle programmieren</t>
+  </si>
+  <si>
+    <t>Satzstatus anzeigen</t>
+  </si>
+  <si>
+    <t>Spielstand anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spielfeld anzeigen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Züge des aktuellen Satz anzeigen </t>
+  </si>
+  <si>
+    <t>Künstliche Intellegenz entwickeln</t>
+  </si>
+  <si>
+    <t>Funktionen programmieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank programmieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabellen erstellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabellenzugriffe programmieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Abfragevarianten  entwickeln </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daten verwalten </t>
+  </si>
+  <si>
+    <t>ER-Diagramm malen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung dokumentieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktstruktur &amp; Modelle beschreiben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prozesse modellieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwurfsentscheidungen beschreiben </t>
+  </si>
+  <si>
+    <t>Bedienungsanleitung schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installationsanleitung schreiben  </t>
+  </si>
+  <si>
+    <t>Gruppenmitlieder einladen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme &amp; Uploads verwalten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzungsanleitung dokumentieren </t>
+  </si>
+  <si>
+    <t>07.09.2015</t>
+  </si>
+  <si>
+    <t>11.09.2015</t>
+  </si>
+  <si>
+    <t>21.09.2015</t>
+  </si>
+  <si>
+    <t>28.09.2015</t>
+  </si>
+  <si>
+    <t>30.10.2015</t>
+  </si>
+  <si>
+    <t>12.09.2015</t>
+  </si>
+  <si>
+    <t>15.10.2015</t>
+  </si>
+  <si>
+    <t>19.09.2015</t>
+  </si>
+  <si>
+    <t>29.09.2015</t>
   </si>
 </sst>
 </file>
@@ -507,11 +441,11 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -519,7 +453,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -527,7 +461,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -535,14 +469,14 @@
       <b/>
       <sz val="20"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="5"/>
-      <name val="Arial Black"/>
+      <name val="Tw Cen MT Condensed"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -550,59 +484,22 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="42"/>
       <color theme="7"/>
-      <name val="Arial Black"/>
+      <name val="Tw Cen MT Condensed"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Arial Black"/>
+      <name val="Tw Cen MT Condensed"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -610,21 +507,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="7"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -638,7 +535,7 @@
       <b/>
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Arial Black"/>
+      <name val="Tw Cen MT Condensed"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -646,7 +543,7 @@
       <b/>
       <sz val="13"/>
       <color theme="7"/>
-      <name val="Arial Black"/>
+      <name val="Tw Cen MT Condensed"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -654,15 +551,9 @@
       <b/>
       <sz val="9.5"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -670,8 +561,34 @@
       <color theme="7"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,12 +640,6 @@
       <patternFill patternType="lightUp">
         <fgColor theme="7"/>
         <bgColor theme="7" tint="0.59996337778862885"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -827,30 +738,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,136 +811,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="7">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="6" xfId="12">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="6" xfId="12">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="12" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="6" xfId="12" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="12" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="6" xfId="12" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,22 +947,30 @@
     <cellStyle name="Project Headers" xfId="11"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1083,7 +990,7 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1091,122 +998,67 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
       <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1236,6 +1088,119 @@
         </top>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1404,8 +1369,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project Timeline" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2038,10 +2003,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B19:E24" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="DATUM" dataDxfId="21"/>
-    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="20"/>
-    <tableColumn id="4" name="POSITION" dataDxfId="19"/>
-    <tableColumn id="5" name="BASISLINIE" dataDxfId="18">
+    <tableColumn id="1" name="DATUM" dataDxfId="29"/>
+    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="28"/>
+    <tableColumn id="4" name="POSITION" dataDxfId="27"/>
+    <tableColumn id="5" name="BASISLINIE" dataDxfId="26">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2050,9 +2015,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Integral">
   <a:themeElements>
-    <a:clrScheme name="Project Timeline_1">
+    <a:clrScheme name="Integral">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2060,49 +2025,113 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="2A2C3B"/>
+        <a:srgbClr val="335B74"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FBFCF4"/>
+        <a:srgbClr val="DFE3E5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="F65242"/>
+        <a:srgbClr val="1CADE4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="70B5CF"/>
+        <a:srgbClr val="2683C6"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A78400"/>
+        <a:srgbClr val="27CED7"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="60B6AC"/>
+        <a:srgbClr val="42BA97"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ED9535"/>
+        <a:srgbClr val="3E8853"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="AD7A99"/>
+        <a:srgbClr val="62A39F"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="70B5CF"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="AD7A99"/>
+        <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Project Timeline">
+    <a:fontScheme name="Integral">
       <a:majorFont>
-        <a:latin typeface="Arial Black"/>
+        <a:latin typeface="Tw Cen MT Condensed" panose="020B0606020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Calibri"/>
+        <a:font script="Cyrl" typeface="Calibri"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY얕은샘물M"/>
+        <a:font script="Hans" typeface="华文仿宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Levenim MT"/>
+        <a:font script="Thai" typeface="FreesiaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
+        <a:latin typeface="Tw Cen MT" panose="020B0602020104020603"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Calibri"/>
+        <a:font script="Cyrl" typeface="Calibri"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="HY얕은샘물M"/>
+        <a:font script="Hans" typeface="华文仿宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Levenim MT"/>
+        <a:font script="Thai" typeface="FreesiaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Integral">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2111,66 +2140,61 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="83000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="61000"/>
+                <a:satMod val="150000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="85000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="90000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="150000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2179,28 +2203,22 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="50000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="76200" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2208,12 +2226,18 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig rig="flat" dir="t">
+              <a:rot lat="0" lon="0" rev="3600000"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d contourW="12700" prstMaterial="flat">
+            <a:bevelT w="38100" h="44450" prst="angle"/>
+            <a:contourClr>
+              <a:schemeClr val="phClr">
+                <a:shade val="35000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:contourClr>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2221,56 +2245,40 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:shade val="85000"/>
+            <a:satMod val="125000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="95000"/>
+                <a:shade val="74000"/>
+                <a:satMod val="230000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="92000"/>
+                <a:shade val="69000"/>
+                <a:satMod val="250000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="40000" sy="40000" flip="none" algn="tl"/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -2283,7 +2291,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2300,7 +2308,7 @@
     <col min="14" max="14" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="15" t="s">
         <v>27</v>
@@ -2658,22 +2666,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2695,6 +2703,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2740,944 +2749,945 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="34" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="18"/>
-    <col min="7" max="7" width="24" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="19.5" style="55" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="34" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="55" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="56"/>
+    <col min="7" max="7" width="24" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" s="41" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="F23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="50"/>
+      <c r="G38" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="54"/>
+    </row>
+    <row r="40" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="25" t="s">
+      <c r="F43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="36"/>
-    </row>
-    <row r="42" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="31" t="s">
+      <c r="F45" s="50"/>
+      <c r="G45" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" spans="2:6" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="50" spans="2:6" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" spans="2:6" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="32"/>
-    </row>
-    <row r="52" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="32"/>
-    </row>
-    <row r="53" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="32"/>
-    </row>
-    <row r="55" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="32"/>
-    </row>
-    <row r="56" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="32"/>
-    </row>
-    <row r="57" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="32"/>
-    </row>
-    <row r="58" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F58" s="32"/>
-    </row>
-    <row r="59" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F59" s="32"/>
-    </row>
-    <row r="60" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="32"/>
-    </row>
-    <row r="61" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="32"/>
-    </row>
-    <row r="62" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="32"/>
-    </row>
-    <row r="63" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="32"/>
-    </row>
-    <row r="64" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="32"/>
-    </row>
-    <row r="65" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F65" s="32"/>
-    </row>
-    <row r="66" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="32"/>
-    </row>
-    <row r="67" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="32"/>
-    </row>
-    <row r="68" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="32"/>
-    </row>
-    <row r="69" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="32"/>
-    </row>
-    <row r="70" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
-      <c r="F70" s="32"/>
-    </row>
-    <row r="71" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
-      <c r="F71" s="32"/>
-    </row>
-    <row r="72" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
-      <c r="F72" s="32"/>
-    </row>
-    <row r="73" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="33"/>
-      <c r="F73" s="32"/>
-    </row>
-    <row r="74" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="33"/>
-      <c r="F74" s="32"/>
-    </row>
-    <row r="75" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="33"/>
-      <c r="F75" s="32"/>
-    </row>
-    <row r="76" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="F76" s="32"/>
-    </row>
-    <row r="77" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="F77" s="32"/>
-    </row>
-    <row r="78" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="33"/>
-      <c r="F78" s="32"/>
-    </row>
-    <row r="79" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F79" s="32"/>
-    </row>
-    <row r="80" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F80" s="32"/>
-    </row>
-    <row r="81" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F81" s="32"/>
-    </row>
-    <row r="82" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F82" s="32"/>
-    </row>
-    <row r="83" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="32"/>
-    </row>
-    <row r="84" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F84" s="32"/>
-    </row>
-    <row r="85" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F85" s="32"/>
-    </row>
-    <row r="86" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="32"/>
-    </row>
-    <row r="87" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F87" s="32"/>
-    </row>
-    <row r="88" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F88" s="32"/>
-    </row>
-    <row r="89" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F89" s="32"/>
-    </row>
-    <row r="90" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F90" s="32"/>
-    </row>
-    <row r="91" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F91" s="32"/>
-    </row>
-    <row r="92" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F92" s="32"/>
-    </row>
-    <row r="93" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F93" s="32"/>
-    </row>
-    <row r="94" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F94" s="32"/>
-    </row>
-    <row r="95" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F95" s="32"/>
-    </row>
-    <row r="96" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="32"/>
-    </row>
-    <row r="97" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F97" s="32"/>
-    </row>
-    <row r="98" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F98" s="32"/>
-    </row>
-    <row r="99" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="32"/>
-    </row>
-    <row r="100" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F100" s="32"/>
-    </row>
-    <row r="101" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F101" s="32"/>
-    </row>
-    <row r="102" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="32"/>
-    </row>
-    <row r="103" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F103" s="32"/>
-    </row>
-    <row r="104" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F104" s="32"/>
-    </row>
-    <row r="105" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F105" s="32"/>
-    </row>
-    <row r="106" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F106" s="32"/>
-    </row>
-    <row r="107" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F107" s="32"/>
-    </row>
-    <row r="108" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F108" s="32"/>
-    </row>
-    <row r="109" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="32"/>
-    </row>
-    <row r="110" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="32"/>
-    </row>
-    <row r="111" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="32"/>
-    </row>
-    <row r="112" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="32"/>
-    </row>
-    <row r="113" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="32"/>
-    </row>
-    <row r="114" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="32"/>
-    </row>
-    <row r="115" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F115" s="32"/>
-    </row>
-    <row r="116" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="32"/>
-    </row>
-    <row r="117" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="32"/>
-    </row>
-    <row r="118" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F118" s="32"/>
-    </row>
-    <row r="119" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F119" s="32"/>
-    </row>
-    <row r="120" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="32"/>
-    </row>
-    <row r="121" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="32"/>
-    </row>
-    <row r="122" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F122" s="32"/>
-    </row>
-    <row r="123" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F123" s="32"/>
-    </row>
-    <row r="124" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F124" s="32"/>
-    </row>
-    <row r="125" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F125" s="32"/>
-    </row>
-    <row r="126" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F126" s="32"/>
-    </row>
-    <row r="127" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="32"/>
-    </row>
-    <row r="128" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="32"/>
-    </row>
-    <row r="129" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F129" s="32"/>
-    </row>
-    <row r="130" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F130" s="32"/>
-    </row>
-    <row r="131" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F131" s="32"/>
-    </row>
-    <row r="132" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F132" s="32"/>
-    </row>
-    <row r="133" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F133" s="32"/>
-    </row>
-    <row r="134" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F134" s="32"/>
-    </row>
-    <row r="135" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F135" s="32"/>
-    </row>
-    <row r="136" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F136" s="32"/>
-    </row>
-    <row r="137" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F137" s="32"/>
-    </row>
-    <row r="138" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="32"/>
-    </row>
-    <row r="139" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F139" s="32"/>
-    </row>
-    <row r="140" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F140" s="32"/>
-    </row>
-    <row r="141" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F141" s="32"/>
-    </row>
-    <row r="142" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F142" s="32"/>
-    </row>
-    <row r="143" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F143" s="32"/>
-    </row>
-    <row r="144" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="32"/>
-    </row>
-    <row r="145" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="32"/>
-    </row>
-    <row r="146" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F146" s="32"/>
-    </row>
-    <row r="147" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="32"/>
-    </row>
-    <row r="148" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="32"/>
-    </row>
-    <row r="149" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="32"/>
-    </row>
-    <row r="150" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="32"/>
-    </row>
-    <row r="151" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="32"/>
-    </row>
-    <row r="152" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="32"/>
-    </row>
-    <row r="153" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="32"/>
-    </row>
-    <row r="154" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="32"/>
-    </row>
-    <row r="155" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="32"/>
-    </row>
-    <row r="156" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F156" s="32"/>
-    </row>
-    <row r="157" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F157" s="32"/>
-    </row>
-    <row r="158" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F158" s="32"/>
-    </row>
-    <row r="159" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F159" s="32"/>
-    </row>
-    <row r="160" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="32"/>
-    </row>
-    <row r="161" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="32"/>
-    </row>
-    <row r="162" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F162" s="32"/>
-    </row>
-    <row r="163" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F163" s="32"/>
-    </row>
-    <row r="164" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F164" s="32"/>
-    </row>
-    <row r="165" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F165" s="32"/>
-    </row>
-    <row r="166" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="32"/>
-    </row>
-    <row r="167" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="32"/>
-    </row>
-    <row r="168" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F168" s="32"/>
-    </row>
-    <row r="169" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="32"/>
-    </row>
-    <row r="170" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F170" s="32"/>
-    </row>
-    <row r="171" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="32"/>
-    </row>
-    <row r="172" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F172" s="32"/>
-    </row>
-    <row r="173" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F173" s="32"/>
-    </row>
-    <row r="174" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F174" s="32"/>
-    </row>
-    <row r="175" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F175" s="32"/>
-    </row>
-    <row r="176" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F176" s="32"/>
-    </row>
-    <row r="177" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F177" s="32"/>
-    </row>
-    <row r="178" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F178" s="32"/>
-    </row>
-    <row r="179" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F179" s="32"/>
-    </row>
-    <row r="180" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F180" s="32"/>
-    </row>
-    <row r="181" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F181" s="32"/>
-    </row>
-    <row r="182" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F182" s="32"/>
-    </row>
-    <row r="183" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F183" s="32"/>
-    </row>
-    <row r="184" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F184" s="32"/>
-    </row>
-    <row r="185" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F185" s="32"/>
-    </row>
-    <row r="186" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F186" s="32"/>
-    </row>
-    <row r="187" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F187" s="32"/>
-    </row>
-    <row r="188" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F188" s="32"/>
-    </row>
-    <row r="189" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F189" s="32"/>
-    </row>
-    <row r="190" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F190" s="32"/>
-    </row>
-    <row r="191" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F191" s="32"/>
-    </row>
-    <row r="192" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F192" s="32"/>
-    </row>
-    <row r="193" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F193" s="32"/>
-    </row>
-    <row r="194" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F194" s="32"/>
-    </row>
-    <row r="195" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F195" s="32"/>
-    </row>
-    <row r="196" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F196" s="32"/>
-    </row>
-    <row r="197" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F197" s="32"/>
-    </row>
-    <row r="198" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F198" s="32"/>
-    </row>
-    <row r="199" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F199" s="32"/>
-    </row>
-    <row r="200" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F200" s="32"/>
-    </row>
-    <row r="201" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F201" s="32"/>
-    </row>
-    <row r="202" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F202" s="32"/>
-    </row>
-    <row r="203" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F203" s="32"/>
-    </row>
-    <row r="204" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F204" s="32"/>
-    </row>
-    <row r="205" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F205" s="32"/>
-    </row>
-    <row r="206" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F206" s="32"/>
-    </row>
-    <row r="207" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F207" s="32"/>
-    </row>
-    <row r="208" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F208" s="32"/>
-    </row>
-    <row r="209" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F209" s="32"/>
-    </row>
-    <row r="210" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F210" s="32"/>
-    </row>
-    <row r="211" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F211" s="32"/>
-    </row>
-    <row r="212" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F212" s="32"/>
-    </row>
-    <row r="213" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F213" s="32"/>
-    </row>
-    <row r="214" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F214" s="32"/>
-    </row>
-    <row r="215" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F215" s="32"/>
-    </row>
-    <row r="216" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F216" s="32"/>
-    </row>
-    <row r="217" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F217" s="32"/>
-    </row>
-    <row r="218" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F218" s="32"/>
-    </row>
-    <row r="219" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F219" s="32"/>
-    </row>
-    <row r="220" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F220" s="32"/>
-    </row>
-    <row r="221" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F221" s="32"/>
-    </row>
-    <row r="222" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F222" s="32"/>
-    </row>
-    <row r="223" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F223" s="32"/>
-    </row>
-    <row r="224" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F224" s="32"/>
-    </row>
-    <row r="225" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F225" s="32"/>
-    </row>
-    <row r="226" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F226" s="32"/>
-    </row>
-    <row r="227" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F227" s="32"/>
-    </row>
-    <row r="228" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F228" s="32"/>
-    </row>
-    <row r="229" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F229" s="32"/>
-    </row>
-    <row r="230" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F230" s="32"/>
-    </row>
-    <row r="231" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F231" s="32"/>
-    </row>
-    <row r="232" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F232" s="32"/>
-    </row>
-    <row r="233" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F233" s="32"/>
+    </row>
+    <row r="46" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="47"/>
+    </row>
+    <row r="49" spans="2:6" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="47"/>
+    </row>
+    <row r="50" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="47"/>
+    </row>
+    <row r="51" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="47"/>
+    </row>
+    <row r="52" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="47"/>
+    </row>
+    <row r="53" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="47"/>
+    </row>
+    <row r="54" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="47"/>
+    </row>
+    <row r="55" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="47"/>
+    </row>
+    <row r="56" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="47"/>
+    </row>
+    <row r="57" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="47"/>
+    </row>
+    <row r="58" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="47"/>
+    </row>
+    <row r="59" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="47"/>
+    </row>
+    <row r="60" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="47"/>
+    </row>
+    <row r="61" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="47"/>
+    </row>
+    <row r="62" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="47"/>
+    </row>
+    <row r="63" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="47"/>
+    </row>
+    <row r="64" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="47"/>
+    </row>
+    <row r="65" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="47"/>
+    </row>
+    <row r="68" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="51"/>
+      <c r="F68" s="47"/>
+    </row>
+    <row r="69" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="51"/>
+      <c r="F69" s="47"/>
+    </row>
+    <row r="70" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="51"/>
+      <c r="F70" s="47"/>
+    </row>
+    <row r="71" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="51"/>
+      <c r="F71" s="47"/>
+    </row>
+    <row r="72" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="51"/>
+      <c r="F72" s="47"/>
+    </row>
+    <row r="73" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="51"/>
+      <c r="F73" s="47"/>
+    </row>
+    <row r="74" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="51"/>
+      <c r="F74" s="47"/>
+    </row>
+    <row r="75" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="51"/>
+      <c r="F75" s="47"/>
+    </row>
+    <row r="76" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="51"/>
+      <c r="F76" s="47"/>
+    </row>
+    <row r="77" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="47"/>
+    </row>
+    <row r="78" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="47"/>
+    </row>
+    <row r="79" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="47"/>
+    </row>
+    <row r="80" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="47"/>
+    </row>
+    <row r="81" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="47"/>
+    </row>
+    <row r="82" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="47"/>
+    </row>
+    <row r="83" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="47"/>
+    </row>
+    <row r="84" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="47"/>
+    </row>
+    <row r="85" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="47"/>
+    </row>
+    <row r="89" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="47"/>
+    </row>
+    <row r="90" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="47"/>
+    </row>
+    <row r="91" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="47"/>
+    </row>
+    <row r="92" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="47"/>
+    </row>
+    <row r="93" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="47"/>
+    </row>
+    <row r="94" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F94" s="47"/>
+    </row>
+    <row r="95" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F95" s="47"/>
+    </row>
+    <row r="96" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="47"/>
+    </row>
+    <row r="97" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F97" s="47"/>
+    </row>
+    <row r="98" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="47"/>
+    </row>
+    <row r="99" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="47"/>
+    </row>
+    <row r="100" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="47"/>
+    </row>
+    <row r="101" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="47"/>
+    </row>
+    <row r="102" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="47"/>
+    </row>
+    <row r="103" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="47"/>
+    </row>
+    <row r="104" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="47"/>
+    </row>
+    <row r="105" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="47"/>
+    </row>
+    <row r="106" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="47"/>
+    </row>
+    <row r="107" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="47"/>
+    </row>
+    <row r="108" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="47"/>
+    </row>
+    <row r="109" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="47"/>
+    </row>
+    <row r="110" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="47"/>
+    </row>
+    <row r="111" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="47"/>
+    </row>
+    <row r="112" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="47"/>
+    </row>
+    <row r="113" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="47"/>
+    </row>
+    <row r="114" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="47"/>
+    </row>
+    <row r="115" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="47"/>
+    </row>
+    <row r="116" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="47"/>
+    </row>
+    <row r="117" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="47"/>
+    </row>
+    <row r="118" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="47"/>
+    </row>
+    <row r="119" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="47"/>
+    </row>
+    <row r="120" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="47"/>
+    </row>
+    <row r="121" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="47"/>
+    </row>
+    <row r="122" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="47"/>
+    </row>
+    <row r="123" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="47"/>
+    </row>
+    <row r="124" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="47"/>
+    </row>
+    <row r="125" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F125" s="47"/>
+    </row>
+    <row r="126" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F126" s="47"/>
+    </row>
+    <row r="127" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F127" s="47"/>
+    </row>
+    <row r="128" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="47"/>
+    </row>
+    <row r="129" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="47"/>
+    </row>
+    <row r="130" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F130" s="47"/>
+    </row>
+    <row r="131" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="47"/>
+    </row>
+    <row r="132" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="47"/>
+    </row>
+    <row r="133" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F133" s="47"/>
+    </row>
+    <row r="134" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="47"/>
+    </row>
+    <row r="135" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F135" s="47"/>
+    </row>
+    <row r="136" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F136" s="47"/>
+    </row>
+    <row r="137" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="47"/>
+    </row>
+    <row r="138" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F138" s="47"/>
+    </row>
+    <row r="139" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="47"/>
+    </row>
+    <row r="140" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F140" s="47"/>
+    </row>
+    <row r="141" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="47"/>
+    </row>
+    <row r="142" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="47"/>
+    </row>
+    <row r="143" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="47"/>
+    </row>
+    <row r="144" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F144" s="47"/>
+    </row>
+    <row r="145" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F145" s="47"/>
+    </row>
+    <row r="146" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F146" s="47"/>
+    </row>
+    <row r="147" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="47"/>
+    </row>
+    <row r="148" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="47"/>
+    </row>
+    <row r="149" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F149" s="47"/>
+    </row>
+    <row r="150" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F150" s="47"/>
+    </row>
+    <row r="151" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F151" s="47"/>
+    </row>
+    <row r="152" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F152" s="47"/>
+    </row>
+    <row r="153" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F153" s="47"/>
+    </row>
+    <row r="154" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F154" s="47"/>
+    </row>
+    <row r="155" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F155" s="47"/>
+    </row>
+    <row r="156" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F156" s="47"/>
+    </row>
+    <row r="157" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F157" s="47"/>
+    </row>
+    <row r="158" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F158" s="47"/>
+    </row>
+    <row r="159" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="47"/>
+    </row>
+    <row r="160" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="47"/>
+    </row>
+    <row r="161" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="47"/>
+    </row>
+    <row r="162" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="47"/>
+    </row>
+    <row r="163" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F163" s="47"/>
+    </row>
+    <row r="164" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="47"/>
+    </row>
+    <row r="165" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F165" s="47"/>
+    </row>
+    <row r="166" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F166" s="47"/>
+    </row>
+    <row r="167" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F167" s="47"/>
+    </row>
+    <row r="168" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F168" s="47"/>
+    </row>
+    <row r="169" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="47"/>
+    </row>
+    <row r="170" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F170" s="47"/>
+    </row>
+    <row r="171" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F171" s="47"/>
+    </row>
+    <row r="172" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F172" s="47"/>
+    </row>
+    <row r="173" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F173" s="47"/>
+    </row>
+    <row r="174" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F174" s="47"/>
+    </row>
+    <row r="175" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F175" s="47"/>
+    </row>
+    <row r="176" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F176" s="47"/>
+    </row>
+    <row r="177" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F177" s="47"/>
+    </row>
+    <row r="178" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F178" s="47"/>
+    </row>
+    <row r="179" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F179" s="47"/>
+    </row>
+    <row r="180" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F180" s="47"/>
+    </row>
+    <row r="181" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F181" s="47"/>
+    </row>
+    <row r="182" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="47"/>
+    </row>
+    <row r="183" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F183" s="47"/>
+    </row>
+    <row r="184" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F184" s="47"/>
+    </row>
+    <row r="185" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F185" s="47"/>
+    </row>
+    <row r="186" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F186" s="47"/>
+    </row>
+    <row r="187" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F187" s="47"/>
+    </row>
+    <row r="188" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F188" s="47"/>
+    </row>
+    <row r="189" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F189" s="47"/>
+    </row>
+    <row r="190" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F190" s="47"/>
+    </row>
+    <row r="191" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F191" s="47"/>
+    </row>
+    <row r="192" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F192" s="47"/>
+    </row>
+    <row r="193" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F193" s="47"/>
+    </row>
+    <row r="194" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F194" s="47"/>
+    </row>
+    <row r="195" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F195" s="47"/>
+    </row>
+    <row r="196" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F196" s="47"/>
+    </row>
+    <row r="197" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F197" s="47"/>
+    </row>
+    <row r="198" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F198" s="47"/>
+    </row>
+    <row r="199" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F199" s="47"/>
+    </row>
+    <row r="200" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F200" s="47"/>
+    </row>
+    <row r="201" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F201" s="47"/>
+    </row>
+    <row r="202" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F202" s="47"/>
+    </row>
+    <row r="203" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F203" s="47"/>
+    </row>
+    <row r="204" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F204" s="47"/>
+    </row>
+    <row r="205" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F205" s="47"/>
+    </row>
+    <row r="206" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F206" s="47"/>
+    </row>
+    <row r="207" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F207" s="47"/>
+    </row>
+    <row r="208" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F208" s="47"/>
+    </row>
+    <row r="209" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F209" s="47"/>
+    </row>
+    <row r="210" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F210" s="47"/>
+    </row>
+    <row r="211" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F211" s="47"/>
+    </row>
+    <row r="212" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F212" s="47"/>
+    </row>
+    <row r="213" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F213" s="47"/>
+    </row>
+    <row r="214" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F214" s="47"/>
+    </row>
+    <row r="215" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F215" s="47"/>
+    </row>
+    <row r="216" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F216" s="47"/>
+    </row>
+    <row r="217" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F217" s="47"/>
+    </row>
+    <row r="218" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F218" s="47"/>
+    </row>
+    <row r="219" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F219" s="47"/>
+    </row>
+    <row r="220" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F220" s="47"/>
+    </row>
+    <row r="221" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F221" s="47"/>
+    </row>
+    <row r="222" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F222" s="47"/>
+    </row>
+    <row r="223" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F223" s="47"/>
+    </row>
+    <row r="224" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F224" s="47"/>
+    </row>
+    <row r="225" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F225" s="47"/>
+    </row>
+    <row r="226" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F226" s="47"/>
+    </row>
+    <row r="227" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F227" s="47"/>
+    </row>
+    <row r="228" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F228" s="47"/>
+    </row>
+    <row r="229" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F229" s="47"/>
+    </row>
+    <row r="230" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F230" s="47"/>
+    </row>
+    <row r="231" spans="6:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F231" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3686,917 +3696,961 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BV34"/>
+  <dimension ref="B2:BV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" style="38" customWidth="1"/>
-    <col min="9" max="28" width="7.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="29" max="67" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7" style="39" customWidth="1"/>
-    <col min="70" max="72" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="2.6640625" style="39"/>
+    <col min="1" max="1" width="2.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="18" customWidth="1"/>
+    <col min="9" max="28" width="7.5" style="18" customWidth="1"/>
+    <col min="29" max="67" width="7.5" style="19" customWidth="1"/>
+    <col min="68" max="68" width="7.6640625" style="19" customWidth="1"/>
+    <col min="69" max="69" width="7" style="19" customWidth="1"/>
+    <col min="70" max="72" width="7.5" style="19" customWidth="1"/>
+    <col min="73" max="16384" width="2.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:74" ht="17" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="2:74" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="I3" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41">
+    <row r="2" spans="2:74" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:74" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="I3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21">
         <v>1</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="43" t="s">
+      <c r="R3" s="20"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+    </row>
+    <row r="5" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+    </row>
+    <row r="6" spans="2:74" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+    </row>
+    <row r="7" spans="2:74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="35">
+        <v>42254</v>
+      </c>
+      <c r="J8" s="35">
+        <v>42255</v>
+      </c>
+      <c r="K8" s="35">
+        <v>42256</v>
+      </c>
+      <c r="L8" s="35">
+        <v>42257</v>
+      </c>
+      <c r="M8" s="35">
+        <v>42258</v>
+      </c>
+      <c r="N8" s="35">
+        <v>42259</v>
+      </c>
+      <c r="O8" s="35">
+        <v>42260</v>
+      </c>
+      <c r="P8" s="35">
+        <v>42261</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>42262</v>
+      </c>
+      <c r="R8" s="35">
+        <v>42263</v>
+      </c>
+      <c r="S8" s="35">
+        <v>42264</v>
+      </c>
+      <c r="T8" s="35">
+        <v>42265</v>
+      </c>
+      <c r="U8" s="35">
+        <v>42266</v>
+      </c>
+      <c r="V8" s="35">
+        <v>42267</v>
+      </c>
+      <c r="W8" s="35">
+        <v>42268</v>
+      </c>
+      <c r="X8" s="35">
+        <v>42269</v>
+      </c>
+      <c r="Y8" s="35">
+        <v>42270</v>
+      </c>
+      <c r="Z8" s="35">
+        <v>42271</v>
+      </c>
+      <c r="AA8" s="35">
+        <v>42272</v>
+      </c>
+      <c r="AB8" s="35">
+        <v>42273</v>
+      </c>
+      <c r="AC8" s="35">
+        <v>42274</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>42275</v>
+      </c>
+      <c r="AE8" s="35">
+        <v>42276</v>
+      </c>
+      <c r="AF8" s="35">
+        <v>42277</v>
+      </c>
+      <c r="AG8" s="35">
+        <v>42278</v>
+      </c>
+      <c r="AH8" s="35">
+        <v>42279</v>
+      </c>
+      <c r="AI8" s="35">
+        <v>42280</v>
+      </c>
+      <c r="AJ8" s="35">
+        <v>42281</v>
+      </c>
+      <c r="AK8" s="35">
+        <v>42282</v>
+      </c>
+      <c r="AL8" s="35">
+        <v>42283</v>
+      </c>
+      <c r="AM8" s="35">
+        <v>42284</v>
+      </c>
+      <c r="AN8" s="35">
+        <v>42285</v>
+      </c>
+      <c r="AO8" s="35">
+        <v>42286</v>
+      </c>
+      <c r="AP8" s="35">
+        <v>42287</v>
+      </c>
+      <c r="AQ8" s="35">
+        <v>42288</v>
+      </c>
+      <c r="AR8" s="35">
+        <v>42289</v>
+      </c>
+      <c r="AS8" s="35">
+        <v>42290</v>
+      </c>
+      <c r="AT8" s="35">
+        <v>42291</v>
+      </c>
+      <c r="AU8" s="35">
+        <v>42292</v>
+      </c>
+      <c r="AV8" s="35">
+        <v>42293</v>
+      </c>
+      <c r="AW8" s="35">
+        <v>42294</v>
+      </c>
+      <c r="AX8" s="35">
+        <v>42295</v>
+      </c>
+      <c r="AY8" s="35">
+        <v>42296</v>
+      </c>
+      <c r="AZ8" s="35">
+        <v>42297</v>
+      </c>
+      <c r="BA8" s="35">
+        <v>42298</v>
+      </c>
+      <c r="BB8" s="35">
+        <v>42299</v>
+      </c>
+      <c r="BC8" s="35">
+        <v>42300</v>
+      </c>
+      <c r="BD8" s="35">
+        <v>42301</v>
+      </c>
+      <c r="BE8" s="35">
+        <v>42302</v>
+      </c>
+      <c r="BF8" s="35">
+        <v>42303</v>
+      </c>
+      <c r="BG8" s="35">
+        <v>42304</v>
+      </c>
+      <c r="BH8" s="35">
+        <v>42305</v>
+      </c>
+      <c r="BI8" s="35">
+        <v>42306</v>
+      </c>
+      <c r="BJ8" s="35">
+        <v>42307</v>
+      </c>
+      <c r="BK8" s="35">
+        <v>42308</v>
+      </c>
+      <c r="BL8" s="35">
+        <v>42309</v>
+      </c>
+      <c r="BM8" s="35">
+        <v>42310</v>
+      </c>
+      <c r="BN8" s="35">
+        <v>42311</v>
+      </c>
+      <c r="BO8" s="35">
+        <v>42312</v>
+      </c>
+      <c r="BP8" s="35">
+        <v>42313</v>
+      </c>
+      <c r="BQ8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR8" s="35">
+        <v>42315</v>
+      </c>
+      <c r="BS8" s="35">
+        <v>42316</v>
+      </c>
+      <c r="BT8" s="35">
+        <v>42317</v>
+      </c>
+      <c r="BU8" s="37"/>
+      <c r="BV8" s="37"/>
+    </row>
+    <row r="9" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="34">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+    </row>
+    <row r="10" spans="2:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+    </row>
+    <row r="11" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+    </row>
+    <row r="12" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+    </row>
+    <row r="13" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+    </row>
+    <row r="14" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="22"/>
+      <c r="BI14" s="22"/>
+      <c r="BJ14" s="22"/>
+    </row>
+    <row r="15" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46" t="s">
+      <c r="C15" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="22"/>
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="22"/>
+      <c r="BJ15" s="22"/>
+    </row>
+    <row r="16" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="43" t="s">
+      <c r="C16" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BJ16" s="22"/>
+    </row>
+    <row r="17" spans="2:62" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:62" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-    </row>
-    <row r="5" spans="2:74" x14ac:dyDescent="0.3">
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-    </row>
-    <row r="6" spans="2:74" ht="17" x14ac:dyDescent="0.25">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="C18" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:62" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-    </row>
-    <row r="7" spans="2:74" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="C19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:62" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="58">
-        <v>42254</v>
-      </c>
-      <c r="J8" s="58">
-        <v>42255</v>
-      </c>
-      <c r="K8" s="58">
-        <v>42256</v>
-      </c>
-      <c r="L8" s="58">
-        <v>42257</v>
-      </c>
-      <c r="M8" s="58">
-        <v>42258</v>
-      </c>
-      <c r="N8" s="58">
-        <v>42259</v>
-      </c>
-      <c r="O8" s="58">
-        <v>42260</v>
-      </c>
-      <c r="P8" s="58">
-        <v>42261</v>
-      </c>
-      <c r="Q8" s="58">
-        <v>42262</v>
-      </c>
-      <c r="R8" s="58">
-        <v>42263</v>
-      </c>
-      <c r="S8" s="58">
-        <v>42264</v>
-      </c>
-      <c r="T8" s="58">
-        <v>42265</v>
-      </c>
-      <c r="U8" s="58">
-        <v>42266</v>
-      </c>
-      <c r="V8" s="58">
-        <v>42267</v>
-      </c>
-      <c r="W8" s="58">
-        <v>42268</v>
-      </c>
-      <c r="X8" s="58">
-        <v>42269</v>
-      </c>
-      <c r="Y8" s="58">
-        <v>42270</v>
-      </c>
-      <c r="Z8" s="58">
-        <v>42271</v>
-      </c>
-      <c r="AA8" s="58">
-        <v>42272</v>
-      </c>
-      <c r="AB8" s="58">
-        <v>42273</v>
-      </c>
-      <c r="AC8" s="58">
-        <v>42274</v>
-      </c>
-      <c r="AD8" s="58">
-        <v>42275</v>
-      </c>
-      <c r="AE8" s="58">
-        <v>42276</v>
-      </c>
-      <c r="AF8" s="58">
-        <v>42277</v>
-      </c>
-      <c r="AG8" s="58">
-        <v>42278</v>
-      </c>
-      <c r="AH8" s="58">
-        <v>42279</v>
-      </c>
-      <c r="AI8" s="58">
-        <v>42280</v>
-      </c>
-      <c r="AJ8" s="58">
-        <v>42281</v>
-      </c>
-      <c r="AK8" s="58">
-        <v>42282</v>
-      </c>
-      <c r="AL8" s="58">
-        <v>42283</v>
-      </c>
-      <c r="AM8" s="58">
-        <v>42284</v>
-      </c>
-      <c r="AN8" s="58">
-        <v>42285</v>
-      </c>
-      <c r="AO8" s="58">
-        <v>42286</v>
-      </c>
-      <c r="AP8" s="58">
-        <v>42287</v>
-      </c>
-      <c r="AQ8" s="58">
-        <v>42288</v>
-      </c>
-      <c r="AR8" s="58">
-        <v>42289</v>
-      </c>
-      <c r="AS8" s="58">
-        <v>42290</v>
-      </c>
-      <c r="AT8" s="58">
-        <v>42291</v>
-      </c>
-      <c r="AU8" s="58">
-        <v>42292</v>
-      </c>
-      <c r="AV8" s="58">
-        <v>42293</v>
-      </c>
-      <c r="AW8" s="58">
-        <v>42294</v>
-      </c>
-      <c r="AX8" s="58">
-        <v>42295</v>
-      </c>
-      <c r="AY8" s="58">
-        <v>42296</v>
-      </c>
-      <c r="AZ8" s="58">
-        <v>42297</v>
-      </c>
-      <c r="BA8" s="58">
-        <v>42298</v>
-      </c>
-      <c r="BB8" s="58">
-        <v>42299</v>
-      </c>
-      <c r="BC8" s="58">
-        <v>42300</v>
-      </c>
-      <c r="BD8" s="58">
-        <v>42301</v>
-      </c>
-      <c r="BE8" s="58">
-        <v>42302</v>
-      </c>
-      <c r="BF8" s="58">
-        <v>42303</v>
-      </c>
-      <c r="BG8" s="58">
-        <v>42304</v>
-      </c>
-      <c r="BH8" s="58">
-        <v>42305</v>
-      </c>
-      <c r="BI8" s="58">
-        <v>42306</v>
-      </c>
-      <c r="BJ8" s="58">
-        <v>42307</v>
-      </c>
-      <c r="BK8" s="58">
-        <v>42308</v>
-      </c>
-      <c r="BL8" s="58">
-        <v>42309</v>
-      </c>
-      <c r="BM8" s="58">
-        <v>42310</v>
-      </c>
-      <c r="BN8" s="58">
-        <v>42311</v>
-      </c>
-      <c r="BO8" s="58">
-        <v>42312</v>
-      </c>
-      <c r="BP8" s="58">
-        <v>42313</v>
-      </c>
-      <c r="BQ8" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR8" s="58">
-        <v>42315</v>
-      </c>
-      <c r="BS8" s="58">
-        <v>42316</v>
-      </c>
-      <c r="BT8" s="58">
-        <v>42317</v>
-      </c>
-      <c r="BU8" s="60"/>
-      <c r="BV8" s="60"/>
-    </row>
-    <row r="9" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="55">
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>5</v>
-      </c>
-      <c r="E9" s="55">
-        <v>1</v>
-      </c>
-      <c r="F9" s="55">
-        <v>4</v>
-      </c>
-      <c r="G9" s="56">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="55">
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
-        <v>6</v>
-      </c>
-      <c r="E10" s="55">
-        <v>1</v>
-      </c>
-      <c r="F10" s="55">
-        <v>6</v>
-      </c>
-      <c r="G10" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="55">
-        <v>2</v>
-      </c>
-      <c r="D11" s="55">
-        <v>4</v>
-      </c>
-      <c r="E11" s="55">
-        <v>2</v>
-      </c>
-      <c r="F11" s="55">
-        <v>5</v>
-      </c>
-      <c r="G11" s="56">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="55">
-        <v>4</v>
-      </c>
-      <c r="D12" s="55">
-        <v>8</v>
-      </c>
-      <c r="E12" s="55">
-        <v>4</v>
-      </c>
-      <c r="F12" s="55">
-        <v>6</v>
-      </c>
-      <c r="G12" s="56">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
+      <c r="C20" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="22"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="22"/>
+      <c r="BJ20" s="22"/>
+    </row>
+    <row r="21" spans="2:62" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="55">
-        <v>4</v>
-      </c>
-      <c r="D13" s="55">
-        <v>2</v>
-      </c>
-      <c r="E13" s="55">
-        <v>4</v>
-      </c>
-      <c r="F13" s="55">
-        <v>8</v>
-      </c>
-      <c r="G13" s="56">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="55">
-        <v>4</v>
-      </c>
-      <c r="D14" s="55">
-        <v>3</v>
-      </c>
-      <c r="E14" s="55">
-        <v>4</v>
-      </c>
-      <c r="F14" s="55">
-        <v>6</v>
-      </c>
-      <c r="G14" s="56">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="55">
-        <v>5</v>
-      </c>
-      <c r="D15" s="55">
-        <v>4</v>
-      </c>
-      <c r="E15" s="55">
-        <v>5</v>
-      </c>
-      <c r="F15" s="55">
-        <v>3</v>
-      </c>
-      <c r="G15" s="56">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:74" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="55">
-        <v>5</v>
-      </c>
-      <c r="D16" s="55">
-        <v>2</v>
-      </c>
-      <c r="E16" s="55">
-        <v>5</v>
-      </c>
-      <c r="F16" s="55">
-        <v>5</v>
-      </c>
-      <c r="G16" s="56">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="55">
-        <v>5</v>
-      </c>
-      <c r="D17" s="55">
-        <v>2</v>
-      </c>
-      <c r="E17" s="55">
-        <v>5</v>
-      </c>
-      <c r="F17" s="55">
-        <v>6</v>
-      </c>
-      <c r="G17" s="56">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
+      <c r="C21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="55">
-        <v>6</v>
-      </c>
-      <c r="D18" s="55">
-        <v>5</v>
-      </c>
-      <c r="E18" s="55">
-        <v>6</v>
-      </c>
-      <c r="F18" s="55">
-        <v>7</v>
-      </c>
-      <c r="G18" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="57">
-        <v>6</v>
-      </c>
-      <c r="D19" s="55">
-        <v>1</v>
-      </c>
-      <c r="E19" s="55">
-        <v>5</v>
-      </c>
-      <c r="F19" s="55">
-        <v>8</v>
-      </c>
-      <c r="G19" s="56">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="55">
-        <v>9</v>
-      </c>
-      <c r="D20" s="55">
-        <v>3</v>
-      </c>
-      <c r="E20" s="55">
-        <v>9</v>
-      </c>
-      <c r="F20" s="55">
-        <v>3</v>
-      </c>
-      <c r="G20" s="56">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="55">
-        <v>9</v>
-      </c>
-      <c r="D21" s="55">
-        <v>6</v>
-      </c>
-      <c r="E21" s="55">
-        <v>9</v>
-      </c>
-      <c r="F21" s="55">
-        <v>7</v>
-      </c>
-      <c r="G21" s="56">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="55">
-        <v>9</v>
-      </c>
-      <c r="D22" s="55">
-        <v>3</v>
-      </c>
-      <c r="E22" s="55">
-        <v>9</v>
-      </c>
-      <c r="F22" s="55">
-        <v>1</v>
-      </c>
-      <c r="G22" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="55">
-        <v>9</v>
-      </c>
-      <c r="D23" s="55">
-        <v>4</v>
-      </c>
-      <c r="E23" s="55">
-        <v>8</v>
-      </c>
-      <c r="F23" s="55">
-        <v>5</v>
-      </c>
-      <c r="G23" s="56">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="55">
-        <v>10</v>
-      </c>
-      <c r="D24" s="55">
-        <v>5</v>
-      </c>
-      <c r="E24" s="55">
-        <v>10</v>
-      </c>
-      <c r="F24" s="55">
-        <v>3</v>
-      </c>
-      <c r="G24" s="56">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="55">
-        <v>11</v>
-      </c>
-      <c r="D25" s="55">
-        <v>2</v>
-      </c>
-      <c r="E25" s="55">
-        <v>11</v>
-      </c>
-      <c r="F25" s="55">
-        <v>5</v>
-      </c>
-      <c r="G25" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="55">
-        <v>12</v>
-      </c>
-      <c r="D26" s="55">
-        <v>6</v>
-      </c>
-      <c r="E26" s="55">
-        <v>12</v>
-      </c>
-      <c r="F26" s="55">
-        <v>7</v>
-      </c>
-      <c r="G26" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="55">
-        <v>12</v>
-      </c>
-      <c r="D27" s="55">
-        <v>1</v>
-      </c>
-      <c r="E27" s="55">
-        <v>12</v>
-      </c>
-      <c r="F27" s="55">
-        <v>5</v>
-      </c>
-      <c r="G27" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="55">
-        <v>14</v>
-      </c>
-      <c r="D28" s="55">
-        <v>5</v>
-      </c>
-      <c r="E28" s="55">
-        <v>14</v>
-      </c>
-      <c r="F28" s="55">
-        <v>6</v>
-      </c>
-      <c r="G28" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="55">
-        <v>14</v>
-      </c>
-      <c r="D29" s="55">
-        <v>8</v>
-      </c>
-      <c r="E29" s="55">
-        <v>14</v>
-      </c>
-      <c r="F29" s="55">
-        <v>2</v>
-      </c>
-      <c r="G29" s="56">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="55">
-        <v>14</v>
-      </c>
-      <c r="D30" s="55">
-        <v>7</v>
-      </c>
-      <c r="E30" s="55">
-        <v>14</v>
-      </c>
-      <c r="F30" s="55">
-        <v>3</v>
-      </c>
-      <c r="G30" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="55">
-        <v>15</v>
-      </c>
-      <c r="D31" s="55">
-        <v>4</v>
-      </c>
-      <c r="E31" s="55">
-        <v>15</v>
-      </c>
-      <c r="F31" s="55">
-        <v>8</v>
-      </c>
-      <c r="G31" s="56">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="55">
-        <v>15</v>
-      </c>
-      <c r="D32" s="55">
-        <v>5</v>
-      </c>
-      <c r="E32" s="55">
-        <v>15</v>
-      </c>
-      <c r="F32" s="55">
-        <v>3</v>
-      </c>
-      <c r="G32" s="56">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="55">
-        <v>15</v>
-      </c>
-      <c r="D33" s="55">
-        <v>8</v>
-      </c>
-      <c r="E33" s="55">
-        <v>15</v>
-      </c>
-      <c r="F33" s="55">
-        <v>5</v>
-      </c>
-      <c r="G33" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="55">
-        <v>16</v>
-      </c>
-      <c r="D34" s="55">
-        <v>28</v>
-      </c>
-      <c r="E34" s="55">
-        <v>16</v>
-      </c>
-      <c r="F34" s="55">
-        <v>30</v>
-      </c>
-      <c r="G34" s="56">
-        <v>0.5</v>
-      </c>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP34">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <conditionalFormatting sqref="X9:BP9 AF10:BP10 AE11:BP11 I12:AD12 BK12:BP12 AE13:BP13 I17:BP19 I14:M15 I16:AD16 BK14:BP16 I21:AT21 BK20:BP21">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>ProzentAbgeschlossenUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>Ist</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>IstUnter</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>Planen</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>I$8=Ausgewählter_Zeitraum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BP35">
-    <cfRule type="expression" dxfId="9" priority="2">
+  <conditionalFormatting sqref="B22:BP22">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BT8">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>I$8=Ausgewählter_Zeitraum</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ProzentAbgeschlossen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>ProzentAbgeschlossenUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Ist</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>IstUnter</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Planen</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>AE$8=Ausgewählter_Zeitraum</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
